--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/BillPayment(ExistingBene)Schedule.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/BillPayment(ExistingBene)Schedule.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="111">
   <si>
     <t>Case</t>
   </si>
@@ -147,9 +147,6 @@
     <t>BillPayment_ConsumerNo_Value</t>
   </si>
   <si>
-    <t>Electricity</t>
-  </si>
-  <si>
     <t>consumer_number_label_query</t>
   </si>
   <si>
@@ -183,50 +180,257 @@
     <t>K-ELECTRIC</t>
   </si>
   <si>
-    <t>0400000615003</t>
-  </si>
-  <si>
     <t>KESC0001</t>
   </si>
   <si>
-    <t>06587901352103</t>
-  </si>
-  <si>
-    <t>Water</t>
-  </si>
-  <si>
     <t>KWSB</t>
   </si>
   <si>
-    <t>65009083300070</t>
-  </si>
-  <si>
     <t>KWSB0001</t>
   </si>
   <si>
-    <t>jango1</t>
-  </si>
-  <si>
-    <t>jango2</t>
-  </si>
-  <si>
-    <t>When valid bill details are provided of Electricity where password is required bene_psd_y</t>
-  </si>
-  <si>
     <t>PASS</t>
   </si>
   <si>
     <t>Expected_Result</t>
   </si>
   <si>
-    <t>When valid bill details are provided of Water where password and OTP both are required but OTP should not appear bene_psd_y</t>
+    <t>Electricity Bill Payment</t>
+  </si>
+  <si>
+    <t>0400000850363</t>
+  </si>
+  <si>
+    <t>01397900690001</t>
+  </si>
+  <si>
+    <t>Electricity only Pass</t>
+  </si>
+  <si>
+    <t>ARSLANCHANNA</t>
+  </si>
+  <si>
+    <t>Water / Sanitation Bill Payment</t>
+  </si>
+  <si>
+    <t>65009110300017</t>
+  </si>
+  <si>
+    <t>Water Pass and OTP</t>
+  </si>
+  <si>
+    <t>Gas Bill Payment</t>
+  </si>
+  <si>
+    <t>SSGC</t>
+  </si>
+  <si>
+    <t>2298571000</t>
+  </si>
+  <si>
+    <t>SSGC0001</t>
+  </si>
+  <si>
+    <t>Gas Only OTP</t>
+  </si>
+  <si>
+    <t>Landline Bill Payment</t>
+  </si>
+  <si>
+    <t>SCO</t>
+  </si>
+  <si>
+    <t>1756153</t>
+  </si>
+  <si>
+    <t>SCO00001</t>
+  </si>
+  <si>
+    <t>Landline No Pass OTP</t>
+  </si>
+  <si>
+    <t>3311641000</t>
+  </si>
+  <si>
+    <t>max amount 5 lac</t>
+  </si>
+  <si>
+    <t>0400000064406</t>
+  </si>
+  <si>
+    <t>max amount 0</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>65009110200054</t>
+  </si>
+  <si>
+    <t>Max amount 10</t>
+  </si>
+  <si>
+    <t>0400000064217</t>
+  </si>
+  <si>
+    <t>14900011079803</t>
+  </si>
+  <si>
+    <t>prestige1</t>
+  </si>
+  <si>
+    <t>MBBILLPRESTIGESCH</t>
+  </si>
+  <si>
+    <t>0400000850010</t>
+  </si>
+  <si>
+    <t>07867918376001</t>
+  </si>
+  <si>
+    <t>nrp1</t>
+  </si>
+  <si>
+    <t>MBNRPSCH</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided of Water WSSP Peshawar via CC 4039060008943228 PRESTIGE MBBILLPRESTIGESCH</t>
+  </si>
+  <si>
+    <t>WSSP Peshawar</t>
+  </si>
+  <si>
+    <t>10020000423</t>
+  </si>
+  <si>
+    <t>WSSP0001</t>
+  </si>
+  <si>
+    <t>4039060008943228</t>
+  </si>
+  <si>
+    <t>CREDIT_CARD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">via CC MB1 </t>
+  </si>
+  <si>
+    <t>When valid bill details are provided of  Water WSSP Peshawar via CC 4039060008943228 PRESTIGE MBBILLPRESTIGESCH</t>
+  </si>
+  <si>
+    <t>1756150</t>
+  </si>
+  <si>
+    <t>Landline via cc MB2</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided of Electricity K-ELECTRIC KESC0001 where only password is required_ARSLANCHANNA</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided of Water KWSB KWSB0001 where password and OTP both are required_ARSLANCHANNA</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided Gas SSGC SSGC0001 where only OTP is required_ARSLANCHANNA</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided Landline SCO SCO00001 where OTP and password both are NOT required_ARSLANCHANNA</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When valid bill details Gas SSGC SSGC0001 0004166544 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">max amount 5 lac </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>only OTP_ARSLANCHANNA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When valid bill details Electricity KESC0001 0400000064368 only Password </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>max amount 0_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ARSLANCHANNA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When valid bill details are provided of Water KWSB KWSB0001 where password and OTP </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>max amount 10_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ARSLANCHANNA</t>
+    </r>
+  </si>
+  <si>
+    <t>When valid bill details are provided of Electricity bill payment PRESTIGE_MBBILLPRESTIGESCH</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided of Electricity bill payment NRP_MBNRPSCH</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided of Water WSSP Peshawar via CC 4039060008943228 PRESTIGE_MBBILLPRESTIGESCH</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided of  Water WSSP Peshawar via CC 4039060008943228 PRESTIGE_MBBILLPRESTIGESCH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,6 +443,14 @@
       <color rgb="FF222222"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -281,7 +493,187 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="23">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -608,10 +1000,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF32"/>
+  <dimension ref="A1:AI32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,9 +1022,10 @@
     <col min="23" max="23" width="139.28515625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="118.5703125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="30" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -712,42 +1105,42 @@
         <v>38</v>
       </c>
       <c r="AA1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC1" t="s">
         <v>44</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>45</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>46</v>
       </c>
-      <c r="AE1" t="s">
-        <v>47</v>
-      </c>
       <c r="AF1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="H2">
         <v>12345678</v>
@@ -776,8 +1169,8 @@
       <c r="P2" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="5" t="s">
-        <v>55</v>
+      <c r="Q2" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>34</v>
@@ -785,7 +1178,7 @@
       <c r="T2" t="s">
         <v>26</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="V2" t="s">
         <v>60</v>
       </c>
       <c r="W2" t="s">
@@ -801,42 +1194,45 @@
         <v>36</v>
       </c>
       <c r="AA2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AB2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC2" t="s">
         <v>48</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>49</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" s="3"/>
+      <c r="AF2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AE2" s="3">
-        <v>2</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>59</v>
+      <c r="G3" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="H3">
         <v>12345678</v>
@@ -865,20 +1261,17 @@
       <c r="P3" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="5" t="s">
-        <v>55</v>
+      <c r="Q3" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>34</v>
       </c>
       <c r="T3" t="s">
-        <v>31</v>
-      </c>
-      <c r="U3">
-        <v>1000</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>61</v>
+        <v>26</v>
+      </c>
+      <c r="V3" t="s">
+        <v>64</v>
       </c>
       <c r="W3" t="s">
         <v>33</v>
@@ -893,133 +1286,874 @@
         <v>36</v>
       </c>
       <c r="AA3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AB3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC3" t="s">
         <v>48</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>49</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" s="3"/>
+      <c r="AF3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AE3" s="3">
-        <v>2</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="5"/>
-      <c r="J4" s="1"/>
-      <c r="Q4" s="5"/>
-      <c r="V4" s="3"/>
+      <c r="G4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4">
+        <v>12345678</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T4" t="s">
+        <v>26</v>
+      </c>
+      <c r="V4" t="s">
+        <v>69</v>
+      </c>
+      <c r="W4" t="s">
+        <v>33</v>
+      </c>
+      <c r="X4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>49</v>
+      </c>
       <c r="AE4" s="3"/>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="5"/>
-      <c r="J5" s="1"/>
-      <c r="Q5" s="5"/>
-      <c r="V5" s="3"/>
+      <c r="AF4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5">
+        <v>12345678</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O5" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T5" t="s">
+        <v>26</v>
+      </c>
+      <c r="V5" t="s">
+        <v>74</v>
+      </c>
+      <c r="W5" t="s">
+        <v>33</v>
+      </c>
+      <c r="X5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>49</v>
+      </c>
       <c r="AE5" s="3"/>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="5"/>
-      <c r="J6" s="1"/>
-      <c r="Q6" s="5"/>
-      <c r="V6" s="3"/>
+      <c r="AF5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6">
+        <v>12345678</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T6" t="s">
+        <v>31</v>
+      </c>
+      <c r="U6">
+        <v>500000</v>
+      </c>
+      <c r="V6" t="s">
+        <v>76</v>
+      </c>
+      <c r="W6" t="s">
+        <v>33</v>
+      </c>
+      <c r="X6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>49</v>
+      </c>
       <c r="AE6" s="3"/>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="5"/>
-      <c r="J7" s="1"/>
-      <c r="Q7" s="5"/>
-      <c r="V7" s="3"/>
+      <c r="AF6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7">
+        <v>12345678</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7" t="s">
+        <v>11</v>
+      </c>
+      <c r="O7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T7" t="s">
+        <v>31</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7" t="s">
+        <v>78</v>
+      </c>
+      <c r="W7" t="s">
+        <v>33</v>
+      </c>
+      <c r="X7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>49</v>
+      </c>
       <c r="AE7" s="3"/>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="5"/>
-      <c r="J8" s="1"/>
-      <c r="Q8" s="5"/>
-      <c r="V8" s="3"/>
+      <c r="AF7" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8">
+        <v>12345678</v>
+      </c>
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8" t="s">
+        <v>11</v>
+      </c>
+      <c r="O8" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U8">
+        <v>10</v>
+      </c>
+      <c r="V8" t="s">
+        <v>81</v>
+      </c>
+      <c r="W8" t="s">
+        <v>33</v>
+      </c>
+      <c r="X8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>49</v>
+      </c>
       <c r="AE8" s="3"/>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="5"/>
-      <c r="J9" s="1"/>
-      <c r="Q9" s="5"/>
-      <c r="V9" s="3"/>
+      <c r="AF8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9">
+        <v>12345678</v>
+      </c>
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" t="s">
+        <v>9</v>
+      </c>
+      <c r="N9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O9" t="s">
+        <v>16</v>
+      </c>
+      <c r="P9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T9" t="s">
+        <v>26</v>
+      </c>
+      <c r="V9" t="s">
+        <v>84</v>
+      </c>
+      <c r="W9" t="s">
+        <v>33</v>
+      </c>
+      <c r="X9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>49</v>
+      </c>
       <c r="AE9" s="3"/>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="5"/>
-      <c r="J10" s="1"/>
-      <c r="Q10" s="5"/>
-      <c r="V10" s="3"/>
+      <c r="AF9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1"/>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10">
+        <v>12345678</v>
+      </c>
+      <c r="I10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" t="s">
+        <v>9</v>
+      </c>
+      <c r="N10" t="s">
+        <v>11</v>
+      </c>
+      <c r="O10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P10" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="S10">
+        <v>202105</v>
+      </c>
+      <c r="T10" t="s">
+        <v>26</v>
+      </c>
+      <c r="V10" t="s">
+        <v>96</v>
+      </c>
+      <c r="W10" t="s">
+        <v>33</v>
+      </c>
+      <c r="X10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>49</v>
+      </c>
       <c r="AE10" s="3"/>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="5"/>
-      <c r="J11" s="1"/>
-      <c r="Q11" s="5"/>
-      <c r="V11" s="3"/>
+      <c r="AF10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11">
+        <v>12345678</v>
+      </c>
+      <c r="I11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" t="s">
+        <v>8</v>
+      </c>
+      <c r="L11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" t="s">
+        <v>9</v>
+      </c>
+      <c r="N11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O11" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="S11">
+        <v>202105</v>
+      </c>
+      <c r="T11" t="s">
+        <v>31</v>
+      </c>
+      <c r="U11">
+        <v>500</v>
+      </c>
+      <c r="V11" t="s">
+        <v>99</v>
+      </c>
+      <c r="W11" t="s">
+        <v>33</v>
+      </c>
+      <c r="X11" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>49</v>
+      </c>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="5"/>
-      <c r="J12" s="1"/>
-      <c r="Q12" s="5"/>
-      <c r="V12" s="3"/>
+      <c r="AF11" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12">
+        <v>12345678</v>
+      </c>
+      <c r="I12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" t="s">
+        <v>10</v>
+      </c>
+      <c r="M12" t="s">
+        <v>9</v>
+      </c>
+      <c r="N12" t="s">
+        <v>11</v>
+      </c>
+      <c r="O12" t="s">
+        <v>16</v>
+      </c>
+      <c r="P12" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T12" t="s">
+        <v>26</v>
+      </c>
+      <c r="V12" t="s">
+        <v>88</v>
+      </c>
+      <c r="W12" t="s">
+        <v>33</v>
+      </c>
+      <c r="X12" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>49</v>
+      </c>
       <c r="AE12" s="3"/>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -1031,19 +2165,7 @@
       <c r="V13" s="3"/>
       <c r="AE13" s="3"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="5"/>
-      <c r="J14" s="1"/>
-      <c r="Q14" s="5"/>
-      <c r="V14" s="3"/>
-      <c r="AE14" s="3"/>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -1055,7 +2177,7 @@
       <c r="V15" s="3"/>
       <c r="AE15" s="3"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1266,14 +2388,54 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:A32"/>
+  <conditionalFormatting sqref="A1 A33:A1048576">
+    <cfRule type="duplicateValues" dxfId="22" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13 A15:A32">
+    <cfRule type="duplicateValues" dxfId="20" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="21"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1 A33:A1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
+  <conditionalFormatting sqref="A2:A3">
+    <cfRule type="duplicateValues" dxfId="17" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A32">
+  <conditionalFormatting sqref="A4">
+    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:A5">
+    <cfRule type="duplicateValues" dxfId="14" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:A7">
+    <cfRule type="duplicateValues" dxfId="11" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:A9">
+    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12">
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12">
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10">
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>

--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/BillPayment(ExistingBene)Schedule.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/BillPayment(ExistingBene)Schedule.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="106">
   <si>
     <t>Case</t>
   </si>
@@ -195,33 +195,18 @@
     <t>Expected_Result</t>
   </si>
   <si>
-    <t>Electricity Bill Payment</t>
-  </si>
-  <si>
     <t>0400000850363</t>
   </si>
   <si>
-    <t>01397900690001</t>
-  </si>
-  <si>
     <t>Electricity only Pass</t>
   </si>
   <si>
-    <t>ARSLANCHANNA</t>
-  </si>
-  <si>
-    <t>Water / Sanitation Bill Payment</t>
-  </si>
-  <si>
     <t>65009110300017</t>
   </si>
   <si>
     <t>Water Pass and OTP</t>
   </si>
   <si>
-    <t>Gas Bill Payment</t>
-  </si>
-  <si>
     <t>SSGC</t>
   </si>
   <si>
@@ -234,9 +219,6 @@
     <t>Gas Only OTP</t>
   </si>
   <si>
-    <t>Landline Bill Payment</t>
-  </si>
-  <si>
     <t>SCO</t>
   </si>
   <si>
@@ -279,9 +261,6 @@
     <t>prestige1</t>
   </si>
   <si>
-    <t>MBBILLPRESTIGESCH</t>
-  </si>
-  <si>
     <t>0400000850010</t>
   </si>
   <si>
@@ -291,12 +270,6 @@
     <t>nrp1</t>
   </si>
   <si>
-    <t>MBNRPSCH</t>
-  </si>
-  <si>
-    <t>When valid bill details are provided of Water WSSP Peshawar via CC 4039060008943228 PRESTIGE MBBILLPRESTIGESCH</t>
-  </si>
-  <si>
     <t>WSSP Peshawar</t>
   </si>
   <si>
@@ -315,122 +288,65 @@
     <t xml:space="preserve">via CC MB1 </t>
   </si>
   <si>
-    <t>When valid bill details are provided of  Water WSSP Peshawar via CC 4039060008943228 PRESTIGE MBBILLPRESTIGESCH</t>
-  </si>
-  <si>
     <t>1756150</t>
   </si>
   <si>
     <t>Landline via cc MB2</t>
   </si>
   <si>
-    <t>When valid bill details are provided of Electricity K-ELECTRIC KESC0001 where only password is required_ARSLANCHANNA</t>
-  </si>
-  <si>
-    <t>When valid bill details are provided of Water KWSB KWSB0001 where password and OTP both are required_ARSLANCHANNA</t>
-  </si>
-  <si>
-    <t>When valid bill details are provided Gas SSGC SSGC0001 where only OTP is required_ARSLANCHANNA</t>
-  </si>
-  <si>
-    <t>When valid bill details are provided Landline SCO SCO00001 where OTP and password both are NOT required_ARSLANCHANNA</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">When valid bill details Gas SSGC SSGC0001 0004166544 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">max amount 5 lac </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>only OTP_ARSLANCHANNA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">When valid bill details Electricity KESC0001 0400000064368 only Password </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>max amount 0_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ARSLANCHANNA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">When valid bill details are provided of Water KWSB KWSB0001 where password and OTP </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>max amount 10_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ARSLANCHANNA</t>
-    </r>
-  </si>
-  <si>
-    <t>When valid bill details are provided of Electricity bill payment PRESTIGE_MBBILLPRESTIGESCH</t>
-  </si>
-  <si>
-    <t>When valid bill details are provided of Electricity bill payment NRP_MBNRPSCH</t>
-  </si>
-  <si>
-    <t>When valid bill details are provided of Water WSSP Peshawar via CC 4039060008943228 PRESTIGE_MBBILLPRESTIGESCH</t>
-  </si>
-  <si>
-    <t>When valid bill details are provided of  Water WSSP Peshawar via CC 4039060008943228 PRESTIGE_MBBILLPRESTIGESCH</t>
+    <t>When valid bill details are provided of Electricity bill payment PRESTIGE_BeneSch_MBBILLPRESTIGESCH</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided of Water WSSP Peshawar via CC 4039060008943228 PRESTIGE_BeneSch_MBBILLPRESTIGESCH</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided of  Landline via CC 4039060008943228 PRESTIGE_BeneSch_MBBILLPRESTIGESCH</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided of Electricity bill payment NRP_BeneSch_MBNRPSCH</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>Landline</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided of Water KWSB where password and OTP both are required_BeneSch_ARSLANCHANNA</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided Gas SSGC where only OTP is required_BeneSch_ARSLANCHANNA</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided Landline SCO where OTP and password both are NOT required_BeneSch_ARSLANCHANNA</t>
+  </si>
+  <si>
+    <t>When valid bill details Gas SSGC max amount 5 lac only OTP_BeneSch_ARSLANCHANNA</t>
+  </si>
+  <si>
+    <t>When valid bill details Electricity KESC only Password max amount 0_BeneSch_ARSLANCHANNA</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided of Water KWSB where password and OTP max amount 10_BeneSch_ARSLANCHANNA</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided of Electricity KESC where only password is required_BeneSch_ARSLANCHANNA</t>
+  </si>
+  <si>
+    <t>00727902484803</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -443,14 +359,6 @@
       <color rgb="FF222222"/>
       <name val="Consolas"/>
       <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1002,8 +910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1022,6 +930,7 @@
     <col min="23" max="23" width="139.28515625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="118.5703125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="30" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1125,16 +1034,16 @@
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
         <v>51</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>50</v>
@@ -1170,7 +1079,7 @@
         <v>19</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>34</v>
@@ -1179,7 +1088,7 @@
         <v>26</v>
       </c>
       <c r="V2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="W2" t="s">
         <v>33</v>
@@ -1209,24 +1118,21 @@
       <c r="AF2" t="s">
         <v>55</v>
       </c>
-      <c r="AG2" t="s">
-        <v>61</v>
-      </c>
       <c r="AH2" s="1"/>
       <c r="AI2" s="1"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="D3" t="s">
         <v>53</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>50</v>
@@ -1262,7 +1168,7 @@
         <v>19</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>34</v>
@@ -1271,7 +1177,7 @@
         <v>26</v>
       </c>
       <c r="V3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="W3" t="s">
         <v>33</v>
@@ -1301,30 +1207,27 @@
       <c r="AF3" t="s">
         <v>55</v>
       </c>
-      <c r="AG3" t="s">
-        <v>61</v>
-      </c>
       <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H4">
         <v>12345678</v>
@@ -1354,7 +1257,7 @@
         <v>19</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>34</v>
@@ -1363,7 +1266,7 @@
         <v>26</v>
       </c>
       <c r="V4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="W4" t="s">
         <v>33</v>
@@ -1393,30 +1296,27 @@
       <c r="AF4" t="s">
         <v>55</v>
       </c>
-      <c r="AG4" t="s">
-        <v>61</v>
-      </c>
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H5">
         <v>12345678</v>
@@ -1446,7 +1346,7 @@
         <v>19</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="R5" s="2" t="s">
         <v>34</v>
@@ -1455,7 +1355,7 @@
         <v>26</v>
       </c>
       <c r="V5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="W5" t="s">
         <v>33</v>
@@ -1485,30 +1385,27 @@
       <c r="AF5" t="s">
         <v>55</v>
       </c>
-      <c r="AG5" t="s">
-        <v>61</v>
-      </c>
       <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H6">
         <v>12345678</v>
@@ -1538,7 +1435,7 @@
         <v>19</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>34</v>
@@ -1550,7 +1447,7 @@
         <v>500000</v>
       </c>
       <c r="V6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="W6" t="s">
         <v>33</v>
@@ -1580,24 +1477,21 @@
       <c r="AF6" t="s">
         <v>55</v>
       </c>
-      <c r="AG6" t="s">
-        <v>61</v>
-      </c>
       <c r="AH6" s="1"/>
       <c r="AI6" s="1"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="D7" t="s">
         <v>51</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>50</v>
@@ -1633,7 +1527,7 @@
         <v>19</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>34</v>
@@ -1645,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="W7" t="s">
         <v>33</v>
@@ -1673,26 +1567,23 @@
       </c>
       <c r="AE7" s="3"/>
       <c r="AF7" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="AH7" s="1"/>
       <c r="AI7" s="1"/>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="D8" t="s">
         <v>53</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>50</v>
@@ -1728,7 +1619,7 @@
         <v>19</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="R8" s="2" t="s">
         <v>34</v>
@@ -1740,7 +1631,7 @@
         <v>10</v>
       </c>
       <c r="V8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W8" t="s">
         <v>33</v>
@@ -1770,24 +1661,21 @@
       <c r="AF8" t="s">
         <v>55</v>
       </c>
-      <c r="AG8" t="s">
-        <v>61</v>
-      </c>
       <c r="AH8" s="1"/>
       <c r="AI8" s="1"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="D9" t="s">
         <v>51</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>50</v>
@@ -1823,7 +1711,7 @@
         <v>19</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="R9" s="2" t="s">
         <v>34</v>
@@ -1832,7 +1720,7 @@
         <v>26</v>
       </c>
       <c r="V9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="W9" t="s">
         <v>33</v>
@@ -1862,30 +1750,27 @@
       <c r="AF9" t="s">
         <v>55</v>
       </c>
-      <c r="AG9" t="s">
-        <v>85</v>
-      </c>
       <c r="AH9" s="1"/>
       <c r="AI9" s="1"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="H10">
         <v>12345678</v>
@@ -1915,10 +1800,10 @@
         <v>19</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="S10">
         <v>202105</v>
@@ -1927,7 +1812,7 @@
         <v>26</v>
       </c>
       <c r="V10" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="W10" t="s">
         <v>33</v>
@@ -1957,30 +1842,27 @@
       <c r="AF10" t="s">
         <v>55</v>
       </c>
-      <c r="AG10" t="s">
-        <v>85</v>
-      </c>
       <c r="AH10" s="1"/>
       <c r="AI10" s="1"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H11">
         <v>12345678</v>
@@ -2010,10 +1892,10 @@
         <v>19</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="S11">
         <v>202105</v>
@@ -2025,7 +1907,7 @@
         <v>500</v>
       </c>
       <c r="V11" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="W11" t="s">
         <v>33</v>
@@ -2055,24 +1937,21 @@
       <c r="AF11" t="s">
         <v>55</v>
       </c>
-      <c r="AG11" t="s">
-        <v>85</v>
-      </c>
       <c r="AH11" s="1"/>
       <c r="AI11" s="1"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="D12" t="s">
         <v>51</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>50</v>
@@ -2108,7 +1987,7 @@
         <v>19</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="R12" s="2" t="s">
         <v>34</v>
@@ -2117,7 +1996,7 @@
         <v>26</v>
       </c>
       <c r="V12" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="W12" t="s">
         <v>33</v>
@@ -2146,9 +2025,6 @@
       <c r="AE12" s="3"/>
       <c r="AF12" t="s">
         <v>55</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>89</v>
       </c>
       <c r="AH12" s="1"/>
       <c r="AI12" s="1"/>

--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/BillPayment(ExistingBene)Schedule.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/BillPayment(ExistingBene)Schedule.xlsx
@@ -910,8 +910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1758,7 +1758,7 @@
         <v>91</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="D10" t="s">
         <v>82</v>

--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/BillPayment(ExistingBene)Schedule.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/BillPayment(ExistingBene)Schedule.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="108">
   <si>
     <t>Case</t>
   </si>
@@ -340,6 +340,12 @@
   </si>
   <si>
     <t>00727902484803</t>
+  </si>
+  <si>
+    <t>FCY_Check</t>
+  </si>
+  <si>
+    <t>conversion_query</t>
   </si>
 </sst>
 </file>
@@ -908,33 +914,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI32"/>
+  <dimension ref="A1:AJ32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="151.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="127.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="185.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.140625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="139.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="118.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="30" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="26.42578125" customWidth="1"/>
+    <col min="6" max="6" width="35.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="127.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="185.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.140625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="139.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="118.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="30" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -942,1325 +948,1331 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>3</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>32</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>29</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>24</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>25</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>27</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>28</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>30</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>39</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>38</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>41</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>43</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>44</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>45</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>46</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AH1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>104</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>94</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>12345678</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>8</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>10</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>9</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>11</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>16</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>26</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>58</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>33</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>35</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>37</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>36</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>42</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>47</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>48</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>49</v>
       </c>
-      <c r="AE2" s="3"/>
-      <c r="AF2" t="s">
+      <c r="AF2" s="3"/>
+      <c r="AG2" t="s">
         <v>55</v>
       </c>
-      <c r="AH2" s="1"/>
       <c r="AI2" s="1"/>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ2" s="1"/>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>95</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>12345678</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>8</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>10</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>9</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>11</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>16</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>26</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>60</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>33</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>35</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>37</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>36</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>42</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>47</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>48</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>49</v>
       </c>
-      <c r="AE3" s="3"/>
-      <c r="AF3" t="s">
+      <c r="AF3" s="3"/>
+      <c r="AG3" t="s">
         <v>55</v>
       </c>
-      <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ3" s="1"/>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>96</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>12345678</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>8</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>10</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>9</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>11</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>16</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="S4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>26</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>64</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>33</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>35</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>37</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>36</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>42</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>47</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>48</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>49</v>
       </c>
-      <c r="AE4" s="3"/>
-      <c r="AF4" t="s">
+      <c r="AF4" s="3"/>
+      <c r="AG4" t="s">
         <v>55</v>
       </c>
-      <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ4" s="1"/>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>97</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>12345678</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>8</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>10</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>9</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>11</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>16</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="S5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>26</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>68</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>33</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>35</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>37</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>36</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>42</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>47</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>48</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>49</v>
       </c>
-      <c r="AE5" s="3"/>
-      <c r="AF5" t="s">
+      <c r="AF5" s="3"/>
+      <c r="AG5" t="s">
         <v>55</v>
       </c>
-      <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ5" s="1"/>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>101</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>96</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>12345678</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>8</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>10</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>9</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>11</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>16</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="S6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>31</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>500000</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>70</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>33</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>35</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>37</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>36</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>42</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>47</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>48</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>49</v>
       </c>
-      <c r="AE6" s="3"/>
-      <c r="AF6" t="s">
+      <c r="AF6" s="3"/>
+      <c r="AG6" t="s">
         <v>55</v>
       </c>
-      <c r="AH6" s="1"/>
       <c r="AI6" s="1"/>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ6" s="1"/>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>102</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>94</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>12345678</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>8</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>10</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>9</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>11</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>16</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="R7" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="S7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>31</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>0</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>72</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>33</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>35</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>37</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>36</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>42</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>47</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>48</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>49</v>
       </c>
-      <c r="AE7" s="3"/>
-      <c r="AF7" t="s">
+      <c r="AF7" s="3"/>
+      <c r="AG7" t="s">
         <v>73</v>
       </c>
-      <c r="AH7" s="1"/>
       <c r="AI7" s="1"/>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ7" s="1"/>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>95</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>12345678</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>8</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>10</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>9</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>11</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>16</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="R8" s="2" t="s">
+      <c r="S8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>31</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>10</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>75</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>33</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>35</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>37</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>36</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>42</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>47</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>48</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>49</v>
       </c>
-      <c r="AE8" s="3"/>
-      <c r="AF8" t="s">
+      <c r="AF8" s="3"/>
+      <c r="AG8" t="s">
         <v>55</v>
       </c>
-      <c r="AH8" s="1"/>
       <c r="AI8" s="1"/>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ8" s="1"/>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>94</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>12345678</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>8</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>10</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>9</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>11</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>16</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="R9" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="R9" s="2" t="s">
+      <c r="S9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>26</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>78</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>33</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>35</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>37</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>36</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>42</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>47</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>48</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>49</v>
       </c>
-      <c r="AE9" s="3"/>
-      <c r="AF9" t="s">
+      <c r="AF9" s="3"/>
+      <c r="AG9" t="s">
         <v>55</v>
       </c>
-      <c r="AH9" s="1"/>
       <c r="AI9" s="1"/>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ9" s="1"/>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>95</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>82</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>12345678</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>8</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>10</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>9</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>11</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>16</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="R10" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R10" s="2" t="s">
+      <c r="S10" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>202105</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>26</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>87</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>33</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>35</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>37</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>36</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>42</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>47</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>48</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>49</v>
       </c>
-      <c r="AE10" s="3"/>
-      <c r="AF10" t="s">
+      <c r="AF10" s="3"/>
+      <c r="AG10" t="s">
         <v>55</v>
       </c>
-      <c r="AH10" s="1"/>
       <c r="AI10" s="1"/>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ10" s="1"/>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>97</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>12345678</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>8</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>10</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>9</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>11</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>16</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="R11" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R11" s="2" t="s">
+      <c r="S11" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>202105</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>31</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>500</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>89</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>33</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>35</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>37</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>36</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>42</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>47</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>48</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>49</v>
       </c>
-      <c r="AE11" s="3"/>
-      <c r="AF11" t="s">
+      <c r="AF11" s="3"/>
+      <c r="AG11" t="s">
         <v>55</v>
       </c>
-      <c r="AH11" s="1"/>
       <c r="AI11" s="1"/>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ11" s="1"/>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>94</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>12345678</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>8</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>10</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>9</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>11</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>16</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="1" t="s">
+      <c r="R12" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="R12" s="2" t="s">
+      <c r="S12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" t="s">
         <v>26</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>81</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>33</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>35</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>37</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>36</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>42</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>47</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>48</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>49</v>
       </c>
-      <c r="AE12" s="3"/>
-      <c r="AF12" t="s">
+      <c r="AF12" s="3"/>
+      <c r="AG12" t="s">
         <v>55</v>
       </c>
-      <c r="AH12" s="1"/>
       <c r="AI12" s="1"/>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ12" s="1"/>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="5"/>
-      <c r="J13" s="1"/>
-      <c r="Q13" s="5"/>
-      <c r="V13" s="3"/>
-      <c r="AE13" s="3"/>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="E13" s="4"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="5"/>
+      <c r="K13" s="1"/>
+      <c r="R13" s="5"/>
+      <c r="W13" s="3"/>
+      <c r="AF13" s="3"/>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="5"/>
-      <c r="J15" s="1"/>
-      <c r="Q15" s="5"/>
-      <c r="V15" s="3"/>
-      <c r="AE15" s="3"/>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="E15" s="4"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="5"/>
+      <c r="K15" s="1"/>
+      <c r="R15" s="5"/>
+      <c r="W15" s="3"/>
+      <c r="AF15" s="3"/>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="5"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="1"/>
-      <c r="Q16" s="5"/>
-      <c r="V16" s="3"/>
-      <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E16" s="4"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="5"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="1"/>
+      <c r="R16" s="5"/>
+      <c r="W16" s="3"/>
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
-      <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="5"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="1"/>
-      <c r="Q17" s="5"/>
-      <c r="V17" s="3"/>
-      <c r="AE17" s="3"/>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E17" s="4"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="5"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="1"/>
+      <c r="R17" s="5"/>
+      <c r="W17" s="3"/>
+      <c r="AF17" s="3"/>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
-      <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="5"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="1"/>
-      <c r="Q18" s="5"/>
-      <c r="V18" s="3"/>
-      <c r="AE18" s="3"/>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E18" s="4"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="5"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="1"/>
+      <c r="R18" s="5"/>
+      <c r="W18" s="3"/>
+      <c r="AF18" s="3"/>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="5"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="1"/>
-      <c r="Q19" s="5"/>
-      <c r="V19" s="3"/>
-      <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E19" s="4"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="5"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="1"/>
+      <c r="R19" s="5"/>
+      <c r="W19" s="3"/>
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
-      <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="5"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="1"/>
-      <c r="Q20" s="5"/>
-      <c r="V20" s="3"/>
-      <c r="AE20" s="3"/>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E20" s="4"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="5"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="1"/>
+      <c r="R20" s="5"/>
+      <c r="W20" s="3"/>
+      <c r="AF20" s="3"/>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
-      <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="5"/>
-      <c r="J21" s="1"/>
-      <c r="Q21" s="5"/>
-      <c r="V21" s="3"/>
-      <c r="AE21" s="3"/>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E21" s="4"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="5"/>
+      <c r="K21" s="1"/>
+      <c r="R21" s="5"/>
+      <c r="W21" s="3"/>
+      <c r="AF21" s="3"/>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
-      <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="5"/>
-      <c r="J22" s="1"/>
-      <c r="Q22" s="5"/>
-      <c r="V22" s="3"/>
-      <c r="AE22" s="3"/>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E22" s="4"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="5"/>
+      <c r="K22" s="1"/>
+      <c r="R22" s="5"/>
+      <c r="W22" s="3"/>
+      <c r="AF22" s="3"/>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
-      <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="5"/>
-      <c r="J23" s="1"/>
-      <c r="Q23" s="5"/>
-      <c r="V23" s="3"/>
-      <c r="AE23" s="3"/>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E23" s="4"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="5"/>
+      <c r="K23" s="1"/>
+      <c r="R23" s="5"/>
+      <c r="W23" s="3"/>
+      <c r="AF23" s="3"/>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
-      <c r="C24" s="4"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="5"/>
-      <c r="J24" s="1"/>
-      <c r="Q24" s="5"/>
-      <c r="V24" s="3"/>
-      <c r="AE24" s="3"/>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E24" s="4"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="5"/>
+      <c r="K24" s="1"/>
+      <c r="R24" s="5"/>
+      <c r="W24" s="3"/>
+      <c r="AF24" s="3"/>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
-      <c r="C25" s="4"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="5"/>
-      <c r="J25" s="1"/>
-      <c r="Q25" s="5"/>
-      <c r="V25" s="3"/>
-      <c r="AE25" s="3"/>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E25" s="4"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="5"/>
+      <c r="K25" s="1"/>
+      <c r="R25" s="5"/>
+      <c r="W25" s="3"/>
+      <c r="AF25" s="3"/>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
-      <c r="C26" s="4"/>
       <c r="D26" s="4"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="5"/>
-      <c r="J26" s="1"/>
-      <c r="Q26" s="5"/>
-      <c r="V26" s="3"/>
-      <c r="AE26" s="3"/>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E26" s="4"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="5"/>
+      <c r="K26" s="1"/>
+      <c r="R26" s="5"/>
+      <c r="W26" s="3"/>
+      <c r="AF26" s="3"/>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
-      <c r="C27" s="4"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="5"/>
-      <c r="J27" s="1"/>
-      <c r="Q27" s="5"/>
-      <c r="V27" s="3"/>
-      <c r="AE27" s="3"/>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E27" s="4"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="5"/>
+      <c r="K27" s="1"/>
+      <c r="R27" s="5"/>
+      <c r="W27" s="3"/>
+      <c r="AF27" s="3"/>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
-      <c r="C28" s="4"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="5"/>
-      <c r="J28" s="1"/>
-      <c r="Q28" s="5"/>
-      <c r="V28" s="3"/>
-      <c r="AE28" s="3"/>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E28" s="4"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="5"/>
+      <c r="K28" s="1"/>
+      <c r="R28" s="5"/>
+      <c r="W28" s="3"/>
+      <c r="AF28" s="3"/>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
-      <c r="C29" s="4"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="5"/>
-      <c r="J29" s="1"/>
-      <c r="Q29" s="5"/>
-      <c r="V29" s="3"/>
-      <c r="AE29" s="3"/>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E29" s="4"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="5"/>
+      <c r="K29" s="1"/>
+      <c r="R29" s="5"/>
+      <c r="W29" s="3"/>
+      <c r="AF29" s="3"/>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
-      <c r="C30" s="4"/>
       <c r="D30" s="4"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="5"/>
-      <c r="J30" s="1"/>
-      <c r="Q30" s="5"/>
-      <c r="V30" s="3"/>
-      <c r="AE30" s="3"/>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E30" s="4"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="5"/>
+      <c r="K30" s="1"/>
+      <c r="R30" s="5"/>
+      <c r="W30" s="3"/>
+      <c r="AF30" s="3"/>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
-      <c r="C31" s="4"/>
       <c r="D31" s="4"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="5"/>
-      <c r="J31" s="1"/>
-      <c r="Q31" s="5"/>
-      <c r="V31" s="3"/>
-      <c r="AE31" s="3"/>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E31" s="4"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="5"/>
+      <c r="K31" s="1"/>
+      <c r="R31" s="5"/>
+      <c r="W31" s="3"/>
+      <c r="AF31" s="3"/>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
-      <c r="C32" s="4"/>
       <c r="D32" s="4"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="5"/>
-      <c r="J32" s="1"/>
-      <c r="Q32" s="5"/>
-      <c r="V32" s="3"/>
-      <c r="AE32" s="3"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="5"/>
+      <c r="K32" s="1"/>
+      <c r="R32" s="5"/>
+      <c r="W32" s="3"/>
+      <c r="AF32" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:A32"/>
